--- a/biology/Zoologie/Cavia_tschudii/Cavia_tschudii.xlsx
+++ b/biology/Zoologie/Cavia_tschudii/Cavia_tschudii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavia tschudii est une espèce de rongeur de la famille des Cavidés. C'est un cobaye sauvage que l'on trouve au Chili.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cobaye sauvage péruvien a été décrit par Edward Turner Bennett en 1835 qui le nomme Cavia cutleri. Johann Jakob von Tschudi, dans une publication de 1845, utilise le terme de Cavia Cutleri pour se référer à ce que l’on considère  maintenant en 2 entités : la première, le Cavia cutleri de Bennett qui a été identifié et décrit avec un pigment différent du Cavia porcellus, et la seconde comme un cochon sauvage péruvien différent de l’animal décrit par Benett. En 1857, Leopold Fitzinger renomme celui-ci en Cavia tschudii.
 </t>
@@ -542,16 +556,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013) :
 sous-espèce Cavia tschudii arequipae
 sous-espèce Cavia tschudii festina
 sous-espèce Cavia tschudii osgoodi
 sous-espèce Cavia tschudii sodalis
 sous-espèce Cavia tschudii stolida
 sous-espèce Cavia tschudii tschudii
-Selon NCBI  (8 févr. 2013)[3] :
+Selon NCBI  (8 févr. 2013) :
 sous-espèce Cavia tschudii osgoodi
 sous-espèce Cavia tschudii sodalis</t>
         </is>
